--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rpavendor\Documents\UiPath\Process3_DailyRecon\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rpavendor\Documents\UiPath\Process3_PreviousDailyRecon\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33CF14BE-E47C-4664-80EB-3FF2E4A866BD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{335D5A42-E5D2-449B-AD8F-233466E283C9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="50">
   <si>
     <t>Name</t>
   </si>
@@ -173,6 +173,9 @@
   </si>
   <si>
     <t>Sage_Login</t>
+  </si>
+  <si>
+    <t>https://sage.tngdigital.com.my/auth/login/page</t>
   </si>
 </sst>
 </file>
@@ -559,16 +562,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z998"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="43.5546875" customWidth="1"/>
+    <col min="1" max="1" width="43.5703125" customWidth="1"/>
     <col min="2" max="2" width="43" customWidth="1"/>
-    <col min="3" max="3" width="81.44140625" customWidth="1"/>
-    <col min="4" max="26" width="8.6640625" customWidth="1"/>
+    <col min="3" max="3" width="81.42578125" customWidth="1"/>
+    <col min="4" max="26" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="14.25" customHeight="1">
@@ -617,7 +620,7 @@
       </c>
     </row>
     <row r="3" spans="1:26" ht="14.25" customHeight="1"/>
-    <row r="4" spans="1:26" ht="28.8">
+    <row r="4" spans="1:26" ht="30">
       <c r="A4" t="s">
         <v>20</v>
       </c>
@@ -657,7 +660,10 @@
       <c r="A9" t="s">
         <v>35</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="C9" t="s">
         <v>36</v>
       </c>
     </row>
@@ -1715,12 +1721,12 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="41" customWidth="1"/>
     <col min="2" max="2" width="51" customWidth="1"/>
-    <col min="3" max="3" width="75.44140625" customWidth="1"/>
-    <col min="4" max="26" width="8.6640625" customWidth="1"/>
+    <col min="3" max="3" width="75.42578125" customWidth="1"/>
+    <col min="4" max="26" width="8.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="14.25" customHeight="1">
@@ -1757,7 +1763,7 @@
       <c r="Y1" s="1"/>
       <c r="Z1" s="1"/>
     </row>
-    <row r="2" spans="1:26" ht="28.8">
+    <row r="2" spans="1:26" ht="30">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -2827,12 +2833,12 @@
       <selection activeCell="C2" sqref="A2:C2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="31.88671875" customWidth="1"/>
-    <col min="2" max="2" width="30.109375" customWidth="1"/>
-    <col min="3" max="3" width="60.33203125" customWidth="1"/>
-    <col min="4" max="26" width="65.44140625" customWidth="1"/>
+    <col min="1" max="1" width="31.85546875" customWidth="1"/>
+    <col min="2" max="2" width="30.140625" customWidth="1"/>
+    <col min="3" max="3" width="60.28515625" customWidth="1"/>
+    <col min="4" max="26" width="65.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:26" ht="14.25" customHeight="1">

--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20372"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20373"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rpavendor\Documents\UiPath\Process3_PreviousDailyRecon\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{335D5A42-E5D2-449B-AD8F-233466E283C9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBA67B59-AB88-4D1F-B927-7F8CBB6EE4CE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -157,9 +157,6 @@
     <t>CIMB_Path</t>
   </si>
   <si>
-    <t>https://emerchant.cimbbank.com.my/eaccess/merchant</t>
-  </si>
-  <si>
     <t>CIMB_Login</t>
   </si>
   <si>
@@ -175,7 +172,10 @@
     <t>Sage_Login</t>
   </si>
   <si>
-    <t>https://sage.tngdigital.com.my/auth/login/page</t>
+    <t>https:/sage.tngdigital.com.my/auth/login/page</t>
+  </si>
+  <si>
+    <t>https:/emerchant.cimbbank.com.my/eaccess/merchant</t>
   </si>
 </sst>
 </file>
@@ -563,7 +563,7 @@
   <dimension ref="A1:Z998"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -650,10 +650,10 @@
     </row>
     <row r="8" spans="1:26" ht="14.25" customHeight="1">
       <c r="A8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="9" spans="1:26" ht="14.25" customHeight="1">
@@ -661,7 +661,7 @@
         <v>35</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C9" t="s">
         <v>36</v>
@@ -672,7 +672,7 @@
         <v>37</v>
       </c>
       <c r="B10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="11" spans="1:26" ht="14.25" customHeight="1">
@@ -704,23 +704,23 @@
         <v>42</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>43</v>
+        <v>49</v>
       </c>
     </row>
     <row r="15" spans="1:26" ht="14.25" customHeight="1">
       <c r="A15" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B15" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="16" spans="1:26" ht="14.25" customHeight="1">
       <c r="A16" t="s">
+        <v>45</v>
+      </c>
+      <c r="B16" t="s">
         <v>46</v>
-      </c>
-      <c r="B16" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="17" ht="14.25" customHeight="1"/>
@@ -1708,7 +1708,7 @@
   </sheetData>
   <phoneticPr fontId="2"/>
   <hyperlinks>
-    <hyperlink ref="B14" r:id="rId1" xr:uid="{61481728-2880-4E0D-B510-DD5835761C34}"/>
+    <hyperlink ref="B14" r:id="rId1" display="https://emerchant.cimbbank.com.my/eaccess/merchant" xr:uid="{61481728-2880-4E0D-B510-DD5835761C34}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
